--- a/rules.xlsx
+++ b/rules.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>Table 1</t>
   </si>
@@ -295,6 +295,9 @@
     <t>Try/catch Blöcke</t>
   </si>
   <si>
+    <t>HILFE, Erklärung nötig! -&gt; Schlecht, wenn zu großer try block?</t>
+  </si>
+  <si>
     <t>Unspecified Error Message</t>
   </si>
   <si>
@@ -327,12 +330,21 @@
     </r>
   </si>
   <si>
+    <t>UseUtilityClass</t>
+  </si>
+  <si>
     <t>Unsafe Cast</t>
   </si>
   <si>
     <t>Empty Constructor</t>
   </si>
   <si>
+    <t>UnnecessaryConstructor</t>
+  </si>
+  <si>
+    <t>UncommentedEmptyConstructor</t>
+  </si>
+  <si>
     <t>Meaningless constants</t>
   </si>
   <si>
@@ -356,6 +368,9 @@
     </r>
   </si>
   <si>
+    <t>UnusedPrivateMethod</t>
+  </si>
+  <si>
     <t>Unused public methods -&gt; NO RULE EXISTING</t>
   </si>
   <si>
@@ -373,6 +388,9 @@
     </r>
   </si>
   <si>
+    <t>UnusedPrivateField</t>
+  </si>
+  <si>
     <t>Unused local variables should be removed</t>
   </si>
   <si>
@@ -387,6 +405,9 @@
     </r>
   </si>
   <si>
+    <t>UnusedLocalVariable</t>
+  </si>
+  <si>
     <t>Missing `throws` statement in method signature</t>
   </si>
   <si>
@@ -587,6 +608,9 @@
   </si>
   <si>
     <t>Final Modifier</t>
+  </si>
+  <si>
+    <t>Don’t find a perfect solution</t>
   </si>
   <si>
     <t>Assert vs IF</t>
@@ -935,7 +959,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -993,6 +1017,9 @@
     <xf numFmtId="49" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1006,6 +1033,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2095,7 +2125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E71"/>
+  <dimension ref="A2:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2106,9 +2136,8 @@
     <col min="1" max="1" width="46.4375" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.6953" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.22656" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.2812" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6562" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5234" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -2118,7 +2147,6 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -2133,9 +2161,6 @@
       <c r="D2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="4">
@@ -2144,7 +2169,6 @@
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="56.05" customHeight="1">
       <c r="A4" t="s" s="7">
@@ -2155,7 +2179,6 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" s="10"/>
@@ -2166,9 +2189,8 @@
         <v>9</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" ht="80.05" customHeight="1">
+    </row>
+    <row r="6" ht="116.05" customHeight="1">
       <c r="A6" t="s" s="7">
         <v>10</v>
       </c>
@@ -2179,7 +2201,6 @@
       <c r="D6" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E6" s="9"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="7">
@@ -2192,7 +2213,6 @@
         <v>15</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="15">
@@ -2201,7 +2221,6 @@
       <c r="B8" s="16"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="7">
@@ -2214,7 +2233,6 @@
         <v>19</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="7">
@@ -2227,7 +2245,6 @@
         <v>22</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="10"/>
@@ -2238,7 +2255,6 @@
         <v>24</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="7">
@@ -2247,7 +2263,6 @@
       <c r="B12" s="16"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
     </row>
     <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="17">
@@ -2257,26 +2272,25 @@
         <v>27</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="D13" t="s" s="19">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="19">
+      <c r="A14" t="s" s="20">
         <v>28</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
     </row>
     <row r="15" ht="63.2" customHeight="1">
-      <c r="A15" t="s" s="21">
+      <c r="A15" t="s" s="22">
         <v>29</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="7">
@@ -2288,8 +2302,9 @@
       <c r="C16" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" t="s" s="19">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="7">
@@ -2298,51 +2313,46 @@
       <c r="B17" s="16"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="B18" t="s" s="22">
+      <c r="B18" t="s" s="23">
         <v>35</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="B19" t="s" s="22">
+      <c r="B19" t="s" s="23">
         <v>35</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="B20" t="s" s="22">
+      <c r="B20" t="s" s="23">
         <v>35</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="B21" t="s" s="23">
+      <c r="B21" t="s" s="24">
         <v>39</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="7">
@@ -2355,546 +2365,546 @@
         <v>15</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="B23" t="s" s="22">
+      <c r="B23" t="s" s="23">
         <v>35</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="7">
         <v>41</v>
       </c>
-      <c r="B24" t="s" s="23">
-        <v>39</v>
+      <c r="B24" t="s" s="24">
+        <v>42</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s" s="22">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s" s="23">
         <v>35</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s" s="22">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s" s="23">
         <v>35</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s" s="22">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s" s="23">
         <v>35</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="B28" t="s" s="22">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s" s="23">
         <v>35</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s" s="18">
         <v>27</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s" s="12">
-        <v>49</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="D30" t="s" s="12">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s" s="18">
         <v>27</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="D31" t="s" s="19">
+        <v>27</v>
+      </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s" s="18">
         <v>27</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="D32" t="s" s="12">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="B33" t="s" s="22">
+      <c r="A33" s="10"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="9"/>
+      <c r="D33" t="s" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s" s="23">
         <v>35</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" ht="32.05" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="B34" s="16"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
+    </row>
+    <row r="35" ht="32.05" customHeight="1">
       <c r="A35" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s" s="14">
-        <v>55</v>
-      </c>
-      <c r="C35" t="s" s="12">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" t="s" s="18">
-        <v>57</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="A36" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s" s="14">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s" s="12">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s" s="12">
+        <v>61</v>
+      </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="10"/>
-      <c r="B37" t="s" s="14">
-        <v>58</v>
-      </c>
-      <c r="C37" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="B37" t="s" s="18">
+        <v>62</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" t="s" s="19">
+        <v>62</v>
+      </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" t="s" s="14">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s" s="12">
-        <v>61</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="D38" t="s" s="12">
+        <v>65</v>
+      </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" t="s" s="14">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s" s="12">
+        <v>68</v>
+      </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="7">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s" s="18">
         <v>27</v>
       </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="D40" t="s" s="19">
+        <v>27</v>
+      </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="7">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s" s="18">
         <v>27</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="D41" t="s" s="19">
+        <v>27</v>
+      </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="7">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s" s="18">
         <v>27</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="D42" t="s" s="19">
+        <v>27</v>
+      </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="7">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s" s="18">
         <v>27</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" ht="20.35" customHeight="1">
+      <c r="D43" t="s" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="B44" t="s" s="14">
-        <v>68</v>
-      </c>
-      <c r="C44" t="s" s="12">
-        <v>69</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="B44" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" t="s" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" ht="20.35" customHeight="1">
+      <c r="A45" t="s" s="7">
+        <v>74</v>
+      </c>
       <c r="B45" t="s" s="14">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s" s="12">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" t="s" s="14">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s" s="12">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" t="s" s="14">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s" s="12">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" s="10"/>
       <c r="B48" t="s" s="14">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s" s="12">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" t="s" s="14">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s" s="12">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" s="10"/>
       <c r="B50" t="s" s="14">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s" s="12">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" s="10"/>
       <c r="B51" t="s" s="14">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s" s="12">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" t="s" s="14">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s" s="12">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" t="s" s="14">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s" s="12">
+        <v>92</v>
+      </c>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" ht="20.05" customHeight="1">
+      <c r="A54" s="10"/>
+      <c r="B54" t="s" s="14">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="7">
-        <v>87</v>
-      </c>
-      <c r="B54" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="7">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s" s="18">
         <v>27</v>
       </c>
       <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="D55" t="s" s="19">
+        <v>27</v>
+      </c>
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="7">
-        <v>89</v>
-      </c>
-      <c r="B56" t="s" s="22">
-        <v>35</v>
+        <v>95</v>
+      </c>
+      <c r="B56" t="s" s="18">
+        <v>27</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="D56" t="s" s="19">
+        <v>27</v>
+      </c>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="B57" t="s" s="18">
-        <v>27</v>
+        <v>96</v>
+      </c>
+      <c r="B57" t="s" s="23">
+        <v>35</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" ht="32.05" customHeight="1">
+    </row>
+    <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="7">
-        <v>91</v>
-      </c>
-      <c r="B58" t="s" s="14">
-        <v>92</v>
-      </c>
-      <c r="C58" t="s" s="12">
-        <v>93</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" ht="20.05" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s" s="18">
+        <v>27</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" t="s" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" ht="32.05" customHeight="1">
       <c r="A59" t="s" s="7">
-        <v>94</v>
-      </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="9"/>
+        <v>98</v>
+      </c>
+      <c r="B59" t="s" s="14">
+        <v>99</v>
+      </c>
+      <c r="C59" t="s" s="12">
+        <v>100</v>
+      </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="7">
-        <v>95</v>
-      </c>
-      <c r="B60" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="C60" t="s" s="12">
-        <v>22</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B60" t="s" s="23">
+        <v>102</v>
+      </c>
+      <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="9"/>
+    </row>
+    <row r="61" ht="32.05" customHeight="1">
+      <c r="A61" s="10"/>
+      <c r="B61" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s" s="12">
+        <v>9</v>
+      </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="7">
-        <v>97</v>
-      </c>
-      <c r="B62" t="s" s="22">
-        <v>35</v>
-      </c>
-      <c r="C62" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="B62" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s" s="12">
+        <v>22</v>
+      </c>
       <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" ht="32.05" customHeight="1">
+    </row>
+    <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="7">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" ht="32.05" customHeight="1">
+    </row>
+    <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="7">
-        <v>99</v>
-      </c>
-      <c r="B64" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="C64" t="s" s="12">
-        <v>19</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B64" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-    </row>
-    <row r="65" ht="20.05" customHeight="1">
+    </row>
+    <row r="65" ht="32.05" customHeight="1">
       <c r="A65" t="s" s="7">
-        <v>100</v>
-      </c>
-      <c r="B65" t="s" s="22">
-        <v>35</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B65" s="16"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
     </row>
     <row r="66" ht="32.05" customHeight="1">
       <c r="A66" t="s" s="7">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s" s="14">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s" s="12">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" s="10"/>
-      <c r="B67" t="s" s="14">
-        <v>104</v>
-      </c>
-      <c r="C67" t="s" s="12">
-        <v>105</v>
-      </c>
+      <c r="A67" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="B67" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="C67" s="9"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-    </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" s="10"/>
+    </row>
+    <row r="68" ht="32.05" customHeight="1">
+      <c r="A68" t="s" s="7">
+        <v>109</v>
+      </c>
       <c r="B68" t="s" s="14">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s" s="12">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-    </row>
-    <row r="69" ht="32.05" customHeight="1">
-      <c r="A69" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="9"/>
+    </row>
+    <row r="69" ht="20.05" customHeight="1">
+      <c r="A69" s="10"/>
+      <c r="B69" t="s" s="14">
+        <v>112</v>
+      </c>
+      <c r="C69" t="s" s="12">
+        <v>113</v>
+      </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-    </row>
-    <row r="70" ht="32.05" customHeight="1">
-      <c r="A70" t="s" s="7">
-        <v>109</v>
-      </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="9"/>
+    </row>
+    <row r="70" ht="20.05" customHeight="1">
+      <c r="A70" s="10"/>
+      <c r="B70" t="s" s="14">
+        <v>114</v>
+      </c>
+      <c r="C70" t="s" s="12">
+        <v>115</v>
+      </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-    </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" s="10"/>
+    </row>
+    <row r="71" ht="32.05" customHeight="1">
+      <c r="A71" t="s" s="7">
+        <v>116</v>
+      </c>
       <c r="B71" s="16"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+    </row>
+    <row r="72" ht="32.05" customHeight="1">
+      <c r="A72" t="s" s="7">
+        <v>117</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" ht="20.05" customHeight="1">
+      <c r="A73" s="10"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display="https://rules.sonarsource.com/java"/>
@@ -2907,25 +2917,26 @@
     <hyperlink ref="C16" r:id="rId8" location="" tooltip="" display="4144"/>
     <hyperlink ref="C22" r:id="rId9" location="" tooltip="" display="3740"/>
     <hyperlink ref="C30" r:id="rId10" location="" tooltip="" display="1118"/>
-    <hyperlink ref="C35" r:id="rId11" location="" tooltip="" display="1144"/>
-    <hyperlink ref="C37" r:id="rId12" location="" tooltip="" display="1068"/>
-    <hyperlink ref="C38" r:id="rId13" location="" tooltip="" display="1481"/>
-    <hyperlink ref="C44" r:id="rId14" location="" tooltip="" display="100"/>
-    <hyperlink ref="C45" r:id="rId15" location="" tooltip="" display="101"/>
-    <hyperlink ref="C46" r:id="rId16" location="" tooltip="" display="114"/>
-    <hyperlink ref="C47" r:id="rId17" location="" tooltip="" display="115"/>
-    <hyperlink ref="C48" r:id="rId18" location="" tooltip="" display="116"/>
-    <hyperlink ref="C49" r:id="rId19" location="" tooltip="" display="117"/>
-    <hyperlink ref="C50" r:id="rId20" location="" tooltip="" display="118"/>
-    <hyperlink ref="C51" r:id="rId21" location="" tooltip="" display="119"/>
-    <hyperlink ref="C52" r:id="rId22" location="" tooltip="" display="120"/>
-    <hyperlink ref="C53" r:id="rId23" location="" tooltip="" display="3008"/>
-    <hyperlink ref="C58" r:id="rId24" location="" tooltip="" display="1170"/>
-    <hyperlink ref="C60" r:id="rId25" location="" tooltip="" display="5960"/>
-    <hyperlink ref="C64" r:id="rId26" location="" tooltip="" display="1319"/>
-    <hyperlink ref="C66" r:id="rId27" location="" tooltip="" display="2094"/>
-    <hyperlink ref="C67" r:id="rId28" location="" tooltip="" display="1186"/>
-    <hyperlink ref="C68" r:id="rId29" location="" tooltip="" display="108"/>
+    <hyperlink ref="C36" r:id="rId11" location="" tooltip="" display="1144"/>
+    <hyperlink ref="C38" r:id="rId12" location="" tooltip="" display="1068"/>
+    <hyperlink ref="C39" r:id="rId13" location="" tooltip="" display="1481"/>
+    <hyperlink ref="C45" r:id="rId14" location="" tooltip="" display="100"/>
+    <hyperlink ref="C46" r:id="rId15" location="" tooltip="" display="101"/>
+    <hyperlink ref="C47" r:id="rId16" location="" tooltip="" display="114"/>
+    <hyperlink ref="C48" r:id="rId17" location="" tooltip="" display="115"/>
+    <hyperlink ref="C49" r:id="rId18" location="" tooltip="" display="116"/>
+    <hyperlink ref="C50" r:id="rId19" location="" tooltip="" display="117"/>
+    <hyperlink ref="C51" r:id="rId20" location="" tooltip="" display="118"/>
+    <hyperlink ref="C52" r:id="rId21" location="" tooltip="" display="119"/>
+    <hyperlink ref="C53" r:id="rId22" location="" tooltip="" display="120"/>
+    <hyperlink ref="C54" r:id="rId23" location="" tooltip="" display="3008"/>
+    <hyperlink ref="C59" r:id="rId24" location="" tooltip="" display="1170"/>
+    <hyperlink ref="C61" r:id="rId25" location="" tooltip="" display="3008"/>
+    <hyperlink ref="C62" r:id="rId26" location="" tooltip="" display="5960"/>
+    <hyperlink ref="C66" r:id="rId27" location="" tooltip="" display="1319"/>
+    <hyperlink ref="C68" r:id="rId28" location="" tooltip="" display="2094"/>
+    <hyperlink ref="C69" r:id="rId29" location="" tooltip="" display="1186"/>
+    <hyperlink ref="C70" r:id="rId30" location="" tooltip="" display="108"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -11,9 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>Table 1</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
   <si>
     <t>Rule</t>
@@ -52,6 +55,9 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="1"/>
@@ -82,19 +88,494 @@
     </r>
   </si>
   <si>
-    <t>Einfachere</t>
-  </si>
-  <si>
-    <t>Nicht-finale Attribute, die eigtl. final sein sollten</t>
-  </si>
-  <si>
-    <t>In SonarQube, the rule for making a variable final if possible is called "Make 'final' private fields" and it is part of the Java code style and best practices ruleset. This rule suggests that private fields should be marked as final whenever possible, as doing so can improve the reliability and maintainability of your code.</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Visibility as low as possible for methods / attributes (private &gt; public &gt; protected) (known exemptions: - Constructors of utility classes must always be </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">private - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Constructors of abstract classes can be </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">protected - </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Constants can also be </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>public)</t>
+    </r>
+  </si>
+  <si>
+    <t>Code duplication</t>
+  </si>
+  <si>
+    <t>Methods should not have identical implementations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>4144</t>
+    </r>
+  </si>
+  <si>
+    <t>Does not find example, only simple code duplications</t>
+  </si>
+  <si>
+    <t>NO RULE EXISTING</t>
+  </si>
+  <si>
+    <t>Code duplication: Repetitions Fixable by Inheritance</t>
+  </si>
+  <si>
+    <t>Inheritance instead of Enums</t>
+  </si>
+  <si>
+    <t>Operations instead of domain</t>
+  </si>
+  <si>
+    <t>Hardcoded logic</t>
+  </si>
+  <si>
+    <t>Stringreferenzen</t>
+  </si>
+  <si>
+    <t>Don’t think that’s possible</t>
+  </si>
+  <si>
+    <t>RawType</t>
+  </si>
+  <si>
+    <t>Raw types should not be used</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>3740</t>
+    </r>
+  </si>
+  <si>
+    <t>Exceptions for control flow</t>
+  </si>
+  <si>
+    <t>EmptyCatchBlock</t>
+  </si>
+  <si>
+    <t>Try/catch Blöcke</t>
+  </si>
+  <si>
+    <t>let’s talk about this, try/catch are very big and do not only contain the necessary constructs -&gt; size of try block maybe?</t>
+  </si>
+  <si>
+    <t>Unspecified Error Message</t>
+  </si>
+  <si>
+    <t>Wrong Loop Type</t>
+  </si>
+  <si>
+    <t>Unnecessary complexity</t>
+  </si>
+  <si>
+    <t>let’s talk about this, unused variables could be determined, but this shouldn’t be enough here.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1481</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1854</t>
+    </r>
+  </si>
+  <si>
+    <t>Clumsy Solution</t>
+  </si>
+  <si>
+    <t>Parsing Integer Values</t>
+  </si>
+  <si>
+    <t>Maybe this could be solved easily with a custom rule</t>
+  </si>
+  <si>
+    <t>Utility Class</t>
+  </si>
+  <si>
+    <t>Utility classes should not have public constructors</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1118</t>
+    </r>
+  </si>
+  <si>
+    <t>PMD could be more precise here</t>
+  </si>
+  <si>
+    <t>UseUtilityClass</t>
+  </si>
+  <si>
+    <t>Unsafe Cast</t>
+  </si>
+  <si>
+    <t>Empty Constructor</t>
+  </si>
+  <si>
+    <t>UnnecessaryConstructor</t>
+  </si>
+  <si>
+    <t>UncommentedEmptyConstructor</t>
+  </si>
+  <si>
+    <t>Meaningless constants</t>
+  </si>
+  <si>
+    <t>Scanner (use multiple scanner objects for a single stream of forgetting to close the scanner)</t>
+  </si>
+  <si>
+    <t>Unused Element (Attribute or (helper) Method)</t>
+  </si>
+  <si>
+    <t>Unused private method should be removed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1144</t>
+    </r>
+  </si>
+  <si>
+    <t>UnusedPrivateMethod</t>
+  </si>
+  <si>
+    <t>Unused public methods -&gt; NO RULE EXISTING</t>
+  </si>
+  <si>
+    <t>Unused private fields should be removed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1068</t>
+    </r>
+  </si>
+  <si>
+    <t>UnusedPrivateField</t>
+  </si>
+  <si>
+    <t>Unused local variables should be removed</t>
+  </si>
+  <si>
+    <t>UnusedLocalVariable</t>
+  </si>
+  <si>
+    <t>Missing `throws` statement in method signature</t>
+  </si>
+  <si>
+    <t>let’s talk about this, should not compile, right? So this should not be an issue here</t>
+  </si>
+  <si>
+    <t>Public enum in class</t>
+  </si>
+  <si>
+    <t>Class of constants</t>
+  </si>
+  <si>
+    <t>System dependent line break</t>
+  </si>
+  <si>
+    <t>Trivial JavaDoc</t>
+  </si>
+  <si>
+    <t>Bad Naming</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Method names should comply with a naming convention, default regex: `^[a-z][a-zA-Z0-9]*$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>100</t>
+    </r>
+  </si>
+  <si>
+    <t>Class names should comply with a naming convention</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>101</t>
+    </r>
+  </si>
+  <si>
+    <t>Interface names should comply with a naming convention</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>114</t>
+    </r>
+  </si>
+  <si>
+    <t>Constant names should comply with a naming convention</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>115</t>
+    </r>
+  </si>
+  <si>
+    <t>Field names should comply with a naming convention</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>116</t>
+    </r>
+  </si>
+  <si>
+    <t>Local variable and method parameter names should comply with a naming convention</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>117</t>
+    </r>
+  </si>
+  <si>
+    <t>Abstract class names should comply with a naming convention</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>118</t>
+    </r>
+  </si>
+  <si>
+    <t>Type parameter names should comply with a naming convention</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>119</t>
+    </r>
+  </si>
+  <si>
+    <t>Package names should comply with a naming convention</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>120</t>
+    </r>
+  </si>
+  <si>
+    <t>Static non-final field names should comply with a naming convention</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>3008</t>
+    </r>
+  </si>
+  <si>
+    <t>Data Encapsulation Violation</t>
+  </si>
+  <si>
+    <t>Separation of Logic and Interaction</t>
+  </si>
+  <si>
+    <t>Too complex code</t>
+  </si>
+  <si>
+    <t>Static methods</t>
+  </si>
+  <si>
+    <t>SingularField</t>
+  </si>
+  <si>
+    <t>Static Attribute/Instance Attribute</t>
+  </si>
+  <si>
+    <t>Public constants and fields initialized at declaration should be "static final" rather than merely "final"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1170</t>
+    </r>
+  </si>
+  <si>
+    <t>Final Modifier</t>
+  </si>
+  <si>
+    <t>RECHECK -&gt; if part exists, it’s okay</t>
   </si>
   <si>
     <t xml:space="preserve">Static non-final field names should comply with a naming convention
 </t>
   </si>
   <si>
+    <t>Assert vs IF</t>
+  </si>
+  <si>
+    <t>Assertions should not be used in production code</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -102,23 +583,8 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>3008</t>
-    </r>
-  </si>
-  <si>
-    <t>Systemabhängiger Zeilenumbruch verwendet, statt System.lineSeparator()</t>
-  </si>
-  <si>
-    <t>I'm sorry, but I am not aware of a SonarQube rule for using system-dependent line breaks instead of System.lineSeparator(). As a general rule, it is considered best practice to use the System.lineSeparator() method instead of relying on system-dependent line breaks, as this method will automatically use the appropriate line separator for the system on which the code is running. This can help to ensure that your code is portable and works correctly on different platforms.</t>
-  </si>
-  <si>
-    <t>As far as I know, there is no PMD rule that specifically addresses the use of system-dependent line breaks instead of System.lineSeparator(). However, PMD does have a general rule called "Avoid using System.out or System.err" that recommends against using the System.out and System.err methods for printing to the console, as they can make your code less readable and maintainable. Instead, the rule suggests using a logging framework like log4j or java.util.logging to handle logging and output in your code.</t>
-  </si>
-  <si>
-    <t>RawType</t>
-  </si>
-  <si>
-    <t>Raw types should not be used</t>
+      <t>5960</t>
+    </r>
   </si>
   <si>
     <r>
@@ -128,14 +594,17 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>3740</t>
-    </r>
-  </si>
-  <si>
-    <t>Komplexere</t>
-  </si>
-  <si>
-    <t>Konkrete Klasse statt Interface verwendet</t>
+      <t>4274</t>
+    </r>
+  </si>
+  <si>
+    <t>Java API with toString / equals</t>
+  </si>
+  <si>
+    <t>Object -&gt; do not use the type `Object`, if it’s possible to set it more precise</t>
+  </si>
+  <si>
+    <t>Class instead of Interface -&gt; Use interface implementation</t>
   </si>
   <si>
     <t>Declarations should use Java collection interfaces such as "List" rather than specific implementation classes such as "LinkedList"</t>
@@ -152,480 +621,7 @@
     </r>
   </si>
   <si>
-    <t>assert werden statt if verwendet (außer private)</t>
-  </si>
-  <si>
-    <t>Assertions should not be used in production code</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>5960</t>
-    </r>
-  </si>
-  <si>
-    <t>Asserts should not be used to check the parameters of a public method</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>4274</t>
-    </r>
-  </si>
-  <si>
-    <t>Object statt konkrete Klasse verwendet</t>
-  </si>
-  <si>
-    <t>Öffentliches Enum innerhalb einer Klasse und nicht in einer separaten Datei definiert</t>
-  </si>
-  <si>
-    <t>NO RULE EXISTING</t>
-  </si>
-  <si>
-    <t>Aus der PDF</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Visibility as low as possible for methods / attributes (private &gt; public &gt; protected) (known exemptions: - Constructors of utility classes must always be </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="19"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">private - </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Constructors of abstract classes can be </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="19"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">protected - </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">Constants can also be </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="19"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>public)</t>
-    </r>
-  </si>
-  <si>
-    <t>Code duplication</t>
-  </si>
-  <si>
-    <t>Methods should not have identical implementations</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>4144</t>
-    </r>
-  </si>
-  <si>
-    <t>Code duplication: Repetitions Fixable by Inheritance</t>
-  </si>
-  <si>
-    <t>Inheritance instead of Enums</t>
-  </si>
-  <si>
-    <t>Don’t think that’s possible</t>
-  </si>
-  <si>
-    <t>Operations instead of domain</t>
-  </si>
-  <si>
-    <t>Hardcoded logic</t>
-  </si>
-  <si>
-    <t>Stringreferenzen</t>
-  </si>
-  <si>
-    <t>HILFE, Erklärung nötig!</t>
-  </si>
-  <si>
-    <t>Exceptions for control flow</t>
-  </si>
-  <si>
-    <t>Try/catch Blöcke</t>
-  </si>
-  <si>
-    <t>HILFE, Erklärung nötig! -&gt; Schlecht, wenn zu großer try block?</t>
-  </si>
-  <si>
-    <t>Unspecified Error Message</t>
-  </si>
-  <si>
-    <t>Wrong Loop Type</t>
-  </si>
-  <si>
-    <t>Unnecessary complexity</t>
-  </si>
-  <si>
-    <t>Clumsy Solution</t>
-  </si>
-  <si>
-    <t>Parsing Integer Values</t>
-  </si>
-  <si>
-    <t>Utility Class</t>
-  </si>
-  <si>
-    <t>Utility classes should not have public constructors</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1118</t>
-    </r>
-  </si>
-  <si>
-    <t>UseUtilityClass</t>
-  </si>
-  <si>
-    <t>Unsafe Cast</t>
-  </si>
-  <si>
-    <t>Empty Constructor</t>
-  </si>
-  <si>
-    <t>UnnecessaryConstructor</t>
-  </si>
-  <si>
-    <t>UncommentedEmptyConstructor</t>
-  </si>
-  <si>
-    <t>Meaningless constants</t>
-  </si>
-  <si>
-    <t>Scanner (use multiple scanner objects for a single stream of forgetting to close the scanner)</t>
-  </si>
-  <si>
-    <t>Unused Element (Attribute or (helper) Method)</t>
-  </si>
-  <si>
-    <t>Unused private method should be removed</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1144</t>
-    </r>
-  </si>
-  <si>
-    <t>UnusedPrivateMethod</t>
-  </si>
-  <si>
-    <t>Unused public methods -&gt; NO RULE EXISTING</t>
-  </si>
-  <si>
-    <t>Unused private fields should be removed</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1068</t>
-    </r>
-  </si>
-  <si>
-    <t>UnusedPrivateField</t>
-  </si>
-  <si>
-    <t>Unused local variables should be removed</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1481</t>
-    </r>
-  </si>
-  <si>
-    <t>UnusedLocalVariable</t>
-  </si>
-  <si>
-    <t>Missing `throws` statement in method signature</t>
-  </si>
-  <si>
-    <t>Public enum in class</t>
-  </si>
-  <si>
-    <t>Class of constants</t>
-  </si>
-  <si>
-    <t>System dependent line break</t>
-  </si>
-  <si>
-    <t>Trivial JavaDoc</t>
-  </si>
-  <si>
-    <t>Bad Naming</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>Method names should comply with a naming convention, default regex: `^[a-z][a-zA-Z0-9]*$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>`</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>100</t>
-    </r>
-  </si>
-  <si>
-    <t>Class names should comply with a naming convention</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>101</t>
-    </r>
-  </si>
-  <si>
-    <t>Interface names should comply with a naming convention</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>114</t>
-    </r>
-  </si>
-  <si>
-    <t>Constant names should comply with a naming convention</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>115</t>
-    </r>
-  </si>
-  <si>
-    <t>Field names should comply with a naming convention</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>116</t>
-    </r>
-  </si>
-  <si>
-    <t>Local variable and method parameter names should comply with a naming convention</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>117</t>
-    </r>
-  </si>
-  <si>
-    <t>Abstract class names should comply with a naming convention</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>118</t>
-    </r>
-  </si>
-  <si>
-    <t>Type parameter names should comply with a naming convention</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>119</t>
-    </r>
-  </si>
-  <si>
-    <t>Package names should comply with a naming convention</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>120</t>
-    </r>
-  </si>
-  <si>
-    <t>Static non-final field names should comply with a naming convention</t>
-  </si>
-  <si>
-    <t>Data Encapsulation Violation</t>
-  </si>
-  <si>
-    <t>Separation of Logic and Interaction</t>
-  </si>
-  <si>
-    <t>Too complex code</t>
-  </si>
-  <si>
-    <t>Static methods</t>
-  </si>
-  <si>
-    <t>Static Attribute/Instance Attribute</t>
-  </si>
-  <si>
-    <t>Public constants and fields initialized at declaration should be "static final" rather than merely "final"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1170</t>
-    </r>
-  </si>
-  <si>
-    <t>Final Modifier</t>
-  </si>
-  <si>
-    <t>Don’t find a perfect solution</t>
-  </si>
-  <si>
-    <t>Assert vs IF</t>
-  </si>
-  <si>
-    <t>Java API</t>
-  </si>
-  <si>
-    <t>toString / equals</t>
-  </si>
-  <si>
-    <t>Object -&gt; do not use the type `Object`, if it’s possible to set it more precise</t>
-  </si>
-  <si>
-    <t>Class instead of Interface -&gt; Use interface implementation</t>
+    <t>LooseCoupling</t>
   </si>
   <si>
     <t>Enum for closed sets</t>
@@ -689,7 +685,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -716,10 +712,11 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="12"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="14"/>
       <name val="Helvetica Neue"/>
@@ -739,19 +736,7 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="17"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="19"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="20"/>
+      <color indexed="18"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -760,7 +745,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,12 +760,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -893,73 +896,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -972,70 +915,94 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1058,15 +1025,14 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffed220b"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff0075b9"/>
-      <rgbColor rgb="fff8b1a9"/>
+      <rgbColor rgb="ffa3107b"/>
+      <rgbColor rgb="fffff056"/>
       <rgbColor rgb="ffff42a1"/>
-      <rgbColor rgb="ffff2600"/>
-      <rgbColor rgb="fff25948"/>
-      <rgbColor rgb="ffa3107b"/>
+      <rgbColor rgb="ffff94ca"/>
       <rgbColor rgb="fffdad00"/>
+      <rgbColor rgb="ff88f94e"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2125,7 +2091,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D73"/>
+  <dimension ref="A2:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -2133,11 +2099,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="46.4375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.6953" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.22656" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.5234" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.9375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1641" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82.3359" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.22656" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.0703" style="1" customWidth="1"/>
+    <col min="6" max="7" width="5.22656" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5234" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -2147,6 +2116,10 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -2161,782 +2134,1046 @@
       <c r="D2" t="s" s="3">
         <v>4</v>
       </c>
+      <c r="E2" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" t="s" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" ht="56.05" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s" s="8">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" ht="104.5" customHeight="1">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" s="10"/>
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
       <c r="B5" t="s" s="11">
         <v>8</v>
       </c>
       <c r="C5" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" ht="116.05" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="D5" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="E5" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" t="s" s="13">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" t="s" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="32.05" customHeight="1">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" t="s" s="16">
         <v>12</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" t="s" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="32.05" customHeight="1">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s" s="11">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s" s="22">
+        <v>25</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s" s="15">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s" s="15">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="B7" t="s" s="14">
+      <c r="B16" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s" s="22">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="12">
+      <c r="B18" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="32.05" customHeight="1">
+      <c r="A19" s="8">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="15">
+      <c r="B19" t="s" s="15">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="8">
         <v>16</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" ht="32.05" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="B20" t="s" s="19">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s" s="20">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" t="s" s="20">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="8">
         <v>17</v>
       </c>
-      <c r="B9" t="s" s="14">
+      <c r="B21" t="s" s="15">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="8">
         <v>18</v>
       </c>
-      <c r="C9" t="s" s="12">
+      <c r="B22" t="s" s="19">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" t="s" s="20">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" t="s" s="20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="8">
         <v>19</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="B24" t="s" s="15">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="44.05" customHeight="1">
+      <c r="A25" s="8">
         <v>20</v>
       </c>
-      <c r="B10" t="s" s="14">
+      <c r="B25" t="s" s="15">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="32.05" customHeight="1">
+      <c r="A26" s="8">
         <v>21</v>
       </c>
-      <c r="C10" t="s" s="12">
+      <c r="B26" t="s" s="19">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s" s="20">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s" s="20">
+        <v>48</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" t="s" s="20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="23"/>
+      <c r="B27" s="27"/>
+      <c r="C27" t="s" s="26">
+        <v>50</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" t="s" s="26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="23"/>
+      <c r="B28" s="27"/>
+      <c r="C28" t="s" s="20">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s" s="20">
+        <v>52</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" t="s" s="20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="23"/>
+      <c r="B29" s="27"/>
+      <c r="C29" t="s" s="20">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s" s="20">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" t="s" s="20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" ht="32.05" customHeight="1">
+      <c r="A30" s="8">
         <v>22</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" t="s" s="14">
+      <c r="B30" t="s" s="11">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s" s="22">
+        <v>57</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" t="s" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="32.05" customHeight="1">
+      <c r="A31" s="8">
         <v>23</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="B31" t="s" s="15">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="32.05" customHeight="1">
+      <c r="A32" s="8">
         <v>24</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="B32" t="s" s="15">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="8">
         <v>25</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" ht="32.05" customHeight="1">
-      <c r="A13" t="s" s="17">
+      <c r="B33" t="s" s="15">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="8">
         <v>26</v>
       </c>
-      <c r="B13" t="s" s="18">
+      <c r="B34" t="s" s="15">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="20.35" customHeight="1">
+      <c r="A35" s="8">
         <v>27</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" t="s" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="20">
+      <c r="B35" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s" s="12">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s" s="12">
+        <v>64</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="8">
         <v>28</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" ht="63.2" customHeight="1">
-      <c r="A15" t="s" s="22">
+      <c r="B36" t="s" s="29">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s" s="12">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s" s="12">
+        <v>68</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" t="s" s="12">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="D39" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" t="s" s="12">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s" s="12">
+        <v>74</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" t="s" s="12">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" t="s" s="12">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s" s="12">
+        <v>78</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" t="s" s="12">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s" s="12">
+        <v>80</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" t="s" s="12">
+        <v>81</v>
+      </c>
+      <c r="D44" t="s" s="12">
+        <v>82</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" s="8">
         <v>29</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="B45" t="s" s="15">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" s="8">
         <v>30</v>
       </c>
-      <c r="B16" t="s" s="14">
+      <c r="B46" t="s" s="15">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" s="8">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="B47" t="s" s="15">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" s="8">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="B48" t="s" s="11">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" t="s" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="A49" s="8">
         <v>33</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="B49" t="s" s="19">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s" s="20">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" ht="20.05" customHeight="1">
+      <c r="A50" s="8">
         <v>34</v>
       </c>
-      <c r="B18" t="s" s="23">
+      <c r="B50" t="s" s="9">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s" s="18">
+        <v>92</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" ht="32.05" customHeight="1">
+      <c r="A51" s="23"/>
+      <c r="B51" s="31"/>
+      <c r="C51" t="s" s="32">
+        <v>93</v>
+      </c>
+      <c r="D51" t="s" s="33">
+        <v>82</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="A52" s="8">
         <v>35</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="B52" t="s" s="19">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s" s="20">
+        <v>95</v>
+      </c>
+      <c r="D52" t="s" s="20">
+        <v>96</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+    </row>
+    <row r="53" ht="20.05" customHeight="1">
+      <c r="A53" s="23"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="21"/>
+      <c r="D53" t="s" s="20">
+        <v>97</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+    </row>
+    <row r="54" ht="20.05" customHeight="1">
+      <c r="A54" s="8">
         <v>36</v>
       </c>
-      <c r="B19" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="B54" t="s" s="9">
+        <v>98</v>
+      </c>
+      <c r="C54" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" ht="32.05" customHeight="1">
+      <c r="A55" s="8">
         <v>37</v>
       </c>
-      <c r="B20" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="B55" t="s" s="15">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" t="s" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="32.05" customHeight="1">
+      <c r="A56" s="8">
         <v>38</v>
       </c>
-      <c r="B21" t="s" s="24">
+      <c r="B56" t="s" s="19">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s" s="20">
+        <v>101</v>
+      </c>
+      <c r="D56" t="s" s="20">
+        <v>102</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" t="s" s="20">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" ht="20.05" customHeight="1">
+      <c r="A57" s="8">
         <v>39</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="B57" t="s" s="15">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" ht="32.05" customHeight="1">
+      <c r="A58" s="8">
         <v>40</v>
       </c>
-      <c r="B23" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="B58" t="s" s="19">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s" s="20">
+        <v>106</v>
+      </c>
+      <c r="D58" t="s" s="20">
+        <v>107</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" ht="20.05" customHeight="1">
+      <c r="A59" s="8">
         <v>41</v>
       </c>
-      <c r="B24" t="s" s="24">
-        <v>42</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="B59" s="27"/>
+      <c r="C59" t="s" s="20">
+        <v>108</v>
+      </c>
+      <c r="D59" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" ht="20.05" customHeight="1">
+      <c r="A60" s="23"/>
+      <c r="B60" s="27"/>
+      <c r="C60" t="s" s="20">
+        <v>110</v>
+      </c>
+      <c r="D60" t="s" s="20">
+        <v>111</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+    </row>
+    <row r="61" ht="32.05" customHeight="1">
+      <c r="A61" s="8">
         <v>43</v>
       </c>
-      <c r="B25" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="B61" t="s" s="9">
+        <v>112</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" ht="32.05" customHeight="1">
+      <c r="A62" s="8">
         <v>44</v>
       </c>
-      <c r="B26" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s" s="14">
-        <v>49</v>
-      </c>
-      <c r="C30" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s" s="12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" t="s" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" t="s" s="12">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="9"/>
-      <c r="D33" t="s" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="B34" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" ht="32.05" customHeight="1">
-      <c r="A35" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="B36" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="C36" t="s" s="12">
-        <v>60</v>
-      </c>
-      <c r="D36" t="s" s="12">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" t="s" s="18">
-        <v>62</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" t="s" s="19">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" t="s" s="14">
-        <v>63</v>
-      </c>
-      <c r="C38" t="s" s="12">
-        <v>64</v>
-      </c>
-      <c r="D38" t="s" s="12">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" t="s" s="14">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s" s="12">
-        <v>67</v>
-      </c>
-      <c r="D39" t="s" s="12">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="7">
-        <v>69</v>
-      </c>
-      <c r="B40" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" t="s" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="7">
-        <v>70</v>
-      </c>
-      <c r="B41" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" t="s" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="7">
-        <v>71</v>
-      </c>
-      <c r="B42" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" t="s" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="7">
-        <v>72</v>
-      </c>
-      <c r="B43" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" t="s" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="B44" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" t="s" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" ht="20.35" customHeight="1">
-      <c r="A45" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="B45" t="s" s="14">
-        <v>75</v>
-      </c>
-      <c r="C45" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" t="s" s="14">
-        <v>77</v>
-      </c>
-      <c r="C46" t="s" s="12">
-        <v>78</v>
-      </c>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" t="s" s="14">
-        <v>79</v>
-      </c>
-      <c r="C47" t="s" s="12">
-        <v>80</v>
-      </c>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" t="s" s="14">
-        <v>81</v>
-      </c>
-      <c r="C48" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" t="s" s="14">
-        <v>83</v>
-      </c>
-      <c r="C49" t="s" s="12">
-        <v>84</v>
-      </c>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="10"/>
-      <c r="B50" t="s" s="14">
-        <v>85</v>
-      </c>
-      <c r="C50" t="s" s="12">
-        <v>86</v>
-      </c>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="10"/>
-      <c r="B51" t="s" s="14">
-        <v>87</v>
-      </c>
-      <c r="C51" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="10"/>
-      <c r="B52" t="s" s="14">
-        <v>89</v>
-      </c>
-      <c r="C52" t="s" s="12">
-        <v>90</v>
-      </c>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" t="s" s="14">
-        <v>91</v>
-      </c>
-      <c r="C53" t="s" s="12">
-        <v>92</v>
-      </c>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="10"/>
-      <c r="B54" t="s" s="14">
-        <v>93</v>
-      </c>
-      <c r="C54" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="7">
-        <v>94</v>
-      </c>
-      <c r="B55" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" t="s" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="7">
-        <v>95</v>
-      </c>
-      <c r="B56" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" t="s" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="7">
-        <v>96</v>
-      </c>
-      <c r="B57" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="7">
-        <v>97</v>
-      </c>
-      <c r="B58" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" t="s" s="19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" ht="32.05" customHeight="1">
-      <c r="A59" t="s" s="7">
-        <v>98</v>
-      </c>
-      <c r="B59" t="s" s="14">
-        <v>99</v>
-      </c>
-      <c r="C59" t="s" s="12">
-        <v>100</v>
-      </c>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="7">
-        <v>101</v>
-      </c>
-      <c r="B60" t="s" s="23">
-        <v>102</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" ht="32.05" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="B61" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="7">
-        <v>103</v>
-      </c>
-      <c r="B62" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="C62" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="7">
-        <v>104</v>
-      </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="7">
-        <v>105</v>
-      </c>
-      <c r="B64" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" ht="32.05" customHeight="1">
-      <c r="A65" t="s" s="7">
-        <v>106</v>
-      </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-    </row>
-    <row r="66" ht="32.05" customHeight="1">
-      <c r="A66" t="s" s="7">
-        <v>107</v>
-      </c>
-      <c r="B66" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="C66" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="D66" s="9"/>
-    </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="7">
-        <v>108</v>
-      </c>
-      <c r="B67" t="s" s="23">
-        <v>35</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-    </row>
-    <row r="68" ht="32.05" customHeight="1">
-      <c r="A68" t="s" s="7">
-        <v>109</v>
-      </c>
-      <c r="B68" t="s" s="14">
-        <v>110</v>
-      </c>
-      <c r="C68" t="s" s="12">
-        <v>111</v>
-      </c>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" s="10"/>
-      <c r="B69" t="s" s="14">
-        <v>112</v>
-      </c>
-      <c r="C69" t="s" s="12">
+      <c r="B62" t="s" s="9">
         <v>113</v>
       </c>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" s="10"/>
-      <c r="B70" t="s" s="14">
-        <v>114</v>
-      </c>
-      <c r="C70" t="s" s="12">
-        <v>115</v>
-      </c>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" ht="32.05" customHeight="1">
-      <c r="A71" t="s" s="7">
-        <v>116</v>
-      </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-    </row>
-    <row r="72" ht="32.05" customHeight="1">
-      <c r="A72" t="s" s="7">
-        <v>117</v>
-      </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-    </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" s="10"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display="https://rules.sonarsource.com/java"/>
-    <hyperlink ref="D2" r:id="rId2" location="" tooltip="" display="https://pmd.github.io/latest/pmd_rules_java.html"/>
-    <hyperlink ref="C5" r:id="rId3" location="" tooltip="" display="3008"/>
-    <hyperlink ref="C7" r:id="rId4" location="" tooltip="" display="3740"/>
-    <hyperlink ref="C9" r:id="rId5" location="" tooltip="" display="1319"/>
-    <hyperlink ref="C10" r:id="rId6" location="" tooltip="" display="5960"/>
-    <hyperlink ref="C11" r:id="rId7" location="" tooltip="" display="4274"/>
-    <hyperlink ref="C16" r:id="rId8" location="" tooltip="" display="4144"/>
-    <hyperlink ref="C22" r:id="rId9" location="" tooltip="" display="3740"/>
-    <hyperlink ref="C30" r:id="rId10" location="" tooltip="" display="1118"/>
-    <hyperlink ref="C36" r:id="rId11" location="" tooltip="" display="1144"/>
-    <hyperlink ref="C38" r:id="rId12" location="" tooltip="" display="1068"/>
-    <hyperlink ref="C39" r:id="rId13" location="" tooltip="" display="1481"/>
-    <hyperlink ref="C45" r:id="rId14" location="" tooltip="" display="100"/>
-    <hyperlink ref="C46" r:id="rId15" location="" tooltip="" display="101"/>
-    <hyperlink ref="C47" r:id="rId16" location="" tooltip="" display="114"/>
-    <hyperlink ref="C48" r:id="rId17" location="" tooltip="" display="115"/>
-    <hyperlink ref="C49" r:id="rId18" location="" tooltip="" display="116"/>
-    <hyperlink ref="C50" r:id="rId19" location="" tooltip="" display="117"/>
-    <hyperlink ref="C51" r:id="rId20" location="" tooltip="" display="118"/>
-    <hyperlink ref="C52" r:id="rId21" location="" tooltip="" display="119"/>
-    <hyperlink ref="C53" r:id="rId22" location="" tooltip="" display="120"/>
-    <hyperlink ref="C54" r:id="rId23" location="" tooltip="" display="3008"/>
-    <hyperlink ref="C59" r:id="rId24" location="" tooltip="" display="1170"/>
-    <hyperlink ref="C61" r:id="rId25" location="" tooltip="" display="3008"/>
-    <hyperlink ref="C62" r:id="rId26" location="" tooltip="" display="5960"/>
-    <hyperlink ref="C66" r:id="rId27" location="" tooltip="" display="1319"/>
-    <hyperlink ref="C68" r:id="rId28" location="" tooltip="" display="2094"/>
-    <hyperlink ref="C69" r:id="rId29" location="" tooltip="" display="1186"/>
-    <hyperlink ref="C70" r:id="rId30" location="" tooltip="" display="108"/>
+    <hyperlink ref="C2" r:id="rId1" location="" tooltip="" display="https://rules.sonarsource.com/java"/>
+    <hyperlink ref="H2" r:id="rId2" location="" tooltip="" display="https://pmd.github.io/latest/pmd_rules_java.html"/>
+    <hyperlink ref="D5" r:id="rId3" location="" tooltip="" display="4144"/>
+    <hyperlink ref="D11" r:id="rId4" location="" tooltip="" display="3740"/>
+    <hyperlink ref="D16" r:id="rId5" location="" tooltip="" display="1481"/>
+    <hyperlink ref="D17" r:id="rId6" location="" tooltip="" display="1854"/>
+    <hyperlink ref="D20" r:id="rId7" location="" tooltip="" display="1118"/>
+    <hyperlink ref="D26" r:id="rId8" location="" tooltip="" display="1144"/>
+    <hyperlink ref="D28" r:id="rId9" location="" tooltip="" display="1068"/>
+    <hyperlink ref="D29" r:id="rId10" location="" tooltip="" display="1481"/>
+    <hyperlink ref="D35" r:id="rId11" location="" tooltip="" display="100"/>
+    <hyperlink ref="D36" r:id="rId12" location="" tooltip="" display="101"/>
+    <hyperlink ref="D37" r:id="rId13" location="" tooltip="" display="114"/>
+    <hyperlink ref="D38" r:id="rId14" location="" tooltip="" display="115"/>
+    <hyperlink ref="D39" r:id="rId15" location="" tooltip="" display="116"/>
+    <hyperlink ref="D40" r:id="rId16" location="" tooltip="" display="117"/>
+    <hyperlink ref="D41" r:id="rId17" location="" tooltip="" display="118"/>
+    <hyperlink ref="D42" r:id="rId18" location="" tooltip="" display="119"/>
+    <hyperlink ref="D43" r:id="rId19" location="" tooltip="" display="120"/>
+    <hyperlink ref="D44" r:id="rId20" location="" tooltip="" display="3008"/>
+    <hyperlink ref="D49" r:id="rId21" location="" tooltip="" display="1170"/>
+    <hyperlink ref="D51" r:id="rId22" location="" tooltip="" display="3008"/>
+    <hyperlink ref="D52" r:id="rId23" location="" tooltip="" display="5960"/>
+    <hyperlink ref="D53" r:id="rId24" location="" tooltip="" display="4274"/>
+    <hyperlink ref="D56" r:id="rId25" location="" tooltip="" display="1319"/>
+    <hyperlink ref="D58" r:id="rId26" location="" tooltip="" display="2094"/>
+    <hyperlink ref="D59" r:id="rId27" location="" tooltip="" display="1186"/>
+    <hyperlink ref="D60" r:id="rId28" location="" tooltip="" display="108"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
